--- a/results_fold_1.xlsx
+++ b/results_fold_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2270306199789047</v>
+        <v>0.9978517889976501</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6251664161682129</v>
+        <v>0.8077335953712463</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.546021938323975</v>
+        <v>7.47481107711792</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2046.953369140625</v>
+        <v>0.2971674203872681</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>550.1524658203125</v>
+        <v>1.612129092216492</v>
       </c>
     </row>
     <row r="6">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2048.27685546875</v>
+        <v>1.976412773132324</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.6886506080627441</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2047.6689453125</v>
+        <v>2.776509046554565</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.6568309664726257</v>
       </c>
     </row>
     <row r="8">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2046.710327148438</v>
+        <v>4.002636432647705</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.7076205611228943</v>
       </c>
     </row>
     <row r="9">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2047.454345703125</v>
+        <v>5.0863938331604</v>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>-1891.31103515625</v>
+        <v>0.8140679001808167</v>
       </c>
     </row>
     <row r="10">
@@ -578,88 +578,168 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2048.59814453125</v>
+        <v>4.723917007446289</v>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>-586.3007202148438</v>
+        <v>0.956774890422821</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Hamming D</t>
+          <t>Distance 6</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1000</v>
+        <v>4.24309778213501</v>
       </c>
       <c r="C11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9467785358428955</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Euclidean D</t>
+          <t>Distance 7</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2056.583984375</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+        <v>3.631460666656494</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8086479306221008</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Relative D</t>
+          <t>Distance 8</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.1524658203125</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+        <v>2.371054172515869</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4789399206638336</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>IoU</t>
+          <t>Distance 9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+        <v>1.33059298992157</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.349806934595108</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Variability</t>
+          <t>Distance 10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+        <v>1.168555617332458</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5483188033103943</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>Hamming D</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Euclidean D</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8.04437255859375</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Relative D</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.612129092216492</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>IoU</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Variability</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
           <t>Best Round</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>145</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
